--- a/doc/数据库表字典.xlsx
+++ b/doc/数据库表字典.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="19395" windowHeight="7605" activeTab="4"/>
+    <workbookView xWindow="600" yWindow="108" windowWidth="19392" windowHeight="7608"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <sheet name="权限角色关联表" sheetId="8" r:id="rId7"/>
     <sheet name="常量参数表" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="131">
   <si>
     <t>编号</t>
   </si>
@@ -509,10 +509,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>menu_role_relation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关联ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -526,10 +522,6 @@
   </si>
   <si>
     <t>relationId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1132,19 +1124,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="22.5">
+    <row r="3" spans="2:9" ht="23.4">
       <c r="B3" s="19" t="s">
         <v>16</v>
       </c>
@@ -1152,7 +1144,7 @@
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="2:9" ht="17.25">
+    <row r="4" spans="2:9" ht="16.8">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1166,7 +1158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="17.25">
+    <row r="5" spans="2:9" ht="16.8">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -1178,7 +1170,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="2:9" ht="17.25">
+    <row r="6" spans="2:9" ht="16.8">
       <c r="B6" s="4">
         <v>2</v>
       </c>
@@ -1192,7 +1184,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" ht="17.25">
+    <row r="7" spans="2:9" ht="16.8">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -1206,7 +1198,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="17.25">
+    <row r="8" spans="2:9" ht="16.8">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -1220,7 +1212,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="2:9" ht="17.25">
+    <row r="9" spans="2:9" ht="16.8">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -1234,7 +1226,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" ht="17.25">
+    <row r="10" spans="2:9" ht="16.8">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -1248,7 +1240,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="2:9" ht="17.25">
+    <row r="11" spans="2:9" ht="16.8">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -1260,67 +1252,67 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="2:9" ht="17.25">
+    <row r="12" spans="2:9" ht="16.8">
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
       <c r="D12" s="6"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="2:9" ht="17.25">
+    <row r="13" spans="2:9" ht="16.8">
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
       <c r="D13" s="6"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="2:9" ht="17.25">
+    <row r="14" spans="2:9" ht="16.8">
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
       <c r="D14" s="6"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="2:9" ht="17.25">
+    <row r="15" spans="2:9" ht="16.8">
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
       <c r="D15" s="6"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="2:9" ht="17.25">
+    <row r="16" spans="2:9" ht="16.8">
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
       <c r="D16" s="6"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" ht="17.25">
+    <row r="17" spans="2:5" ht="16.8">
       <c r="B17" s="4"/>
       <c r="C17" s="2"/>
       <c r="D17" s="6"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" ht="17.25">
+    <row r="18" spans="2:5" ht="16.8">
       <c r="B18" s="4"/>
       <c r="C18" s="2"/>
       <c r="D18" s="6"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" ht="17.25">
+    <row r="19" spans="2:5" ht="16.8">
       <c r="B19" s="4"/>
       <c r="C19" s="2"/>
       <c r="D19" s="6"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" ht="17.25">
+    <row r="20" spans="2:5" ht="16.8">
       <c r="B20" s="4"/>
       <c r="C20" s="2"/>
       <c r="D20" s="6"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" ht="17.25">
+    <row r="21" spans="2:5" ht="16.8">
       <c r="B21" s="4"/>
       <c r="C21" s="2"/>
       <c r="D21" s="6"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" ht="17.25">
+    <row r="22" spans="2:5" ht="16.8">
       <c r="B22" s="4"/>
       <c r="C22" s="2"/>
       <c r="D22" s="6"/>
@@ -1353,25 +1345,25 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="5.625" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" customWidth="1"/>
-    <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="14.25">
+    <row r="2" spans="2:12" ht="15.6">
       <c r="L2" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="16.5">
+    <row r="5" spans="2:12" ht="15.6">
       <c r="B5" s="20" t="s">
         <v>11</v>
       </c>
@@ -1387,7 +1379,7 @@
       <c r="J5" s="22"/>
       <c r="K5" s="23"/>
     </row>
-    <row r="6" spans="2:12" ht="16.5">
+    <row r="6" spans="2:12" ht="15.6">
       <c r="B6" s="20" t="s">
         <v>12</v>
       </c>
@@ -1403,7 +1395,7 @@
       <c r="J6" s="22"/>
       <c r="K6" s="23"/>
     </row>
-    <row r="7" spans="2:12" ht="16.5">
+    <row r="7" spans="2:12" ht="15.6">
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
@@ -1435,7 +1427,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="16.5">
+    <row r="8" spans="2:12" ht="15.6">
       <c r="B8" s="11">
         <v>1</v>
       </c>
@@ -1459,7 +1451,7 @@
       <c r="J8" s="14"/>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="2:12" ht="16.5">
+    <row r="9" spans="2:12" ht="15.6">
       <c r="B9" s="11">
         <v>2</v>
       </c>
@@ -1483,7 +1475,7 @@
       <c r="J9" s="14"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="2:12" ht="16.5">
+    <row r="10" spans="2:12" ht="15.6">
       <c r="B10" s="11">
         <v>3</v>
       </c>
@@ -1507,7 +1499,7 @@
       <c r="J10" s="14"/>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="2:12" ht="16.5">
+    <row r="11" spans="2:12" ht="15.6">
       <c r="B11" s="11">
         <v>4</v>
       </c>
@@ -1531,7 +1523,7 @@
       <c r="J11" s="14"/>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="2:12" ht="16.5">
+    <row r="12" spans="2:12" ht="15.6">
       <c r="B12" s="11">
         <v>5</v>
       </c>
@@ -1555,7 +1547,7 @@
       <c r="J12" s="14"/>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="2:12" ht="16.5">
+    <row r="13" spans="2:12" ht="15.6">
       <c r="B13" s="11">
         <v>6</v>
       </c>
@@ -1581,7 +1573,7 @@
       </c>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="2:12" ht="16.5">
+    <row r="14" spans="2:12" ht="15.6">
       <c r="B14" s="11">
         <v>7</v>
       </c>
@@ -1605,7 +1597,7 @@
       <c r="J14" s="14"/>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="2:12" ht="16.5">
+    <row r="15" spans="2:12" ht="15.6">
       <c r="B15" s="11">
         <v>8</v>
       </c>
@@ -1629,7 +1621,7 @@
       </c>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="2:12" ht="16.5">
+    <row r="16" spans="2:12" ht="15.6">
       <c r="B16" s="11">
         <v>9</v>
       </c>
@@ -1651,7 +1643,7 @@
       <c r="J16" s="14"/>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="2:11" ht="16.5">
+    <row r="17" spans="2:11" ht="15.6">
       <c r="B17" s="11">
         <v>10</v>
       </c>
@@ -1677,7 +1669,7 @@
       </c>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="2:11" ht="16.5">
+    <row r="18" spans="2:11" ht="15.6">
       <c r="B18" s="11">
         <v>11</v>
       </c>
@@ -1701,7 +1693,7 @@
       <c r="J18" s="14"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="2:11" ht="16.5">
+    <row r="19" spans="2:11" ht="15.6">
       <c r="B19" s="11">
         <v>12</v>
       </c>
@@ -1725,7 +1717,7 @@
       <c r="J19" s="14"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="2:11" ht="16.5">
+    <row r="20" spans="2:11" ht="15.6">
       <c r="B20" s="11">
         <v>13</v>
       </c>
@@ -1749,7 +1741,7 @@
       <c r="J20" s="14"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="2:11" ht="16.5">
+    <row r="21" spans="2:11" ht="15.6">
       <c r="B21" s="11">
         <v>14</v>
       </c>
@@ -1773,7 +1765,7 @@
       <c r="J21" s="14"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="2:11" ht="16.5">
+    <row r="22" spans="2:11" ht="15.6">
       <c r="B22" s="11">
         <v>15</v>
       </c>
@@ -1797,7 +1789,7 @@
       <c r="J22" s="14"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="2:11" ht="16.5">
+    <row r="23" spans="2:11" ht="15.6">
       <c r="B23" s="11"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -1832,19 +1824,19 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="14.25">
+    <row r="2" spans="2:12" ht="15.6">
       <c r="L2" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="16.5">
+    <row r="5" spans="2:12" ht="15.6">
       <c r="B5" s="20" t="s">
         <v>11</v>
       </c>
@@ -1860,7 +1852,7 @@
       <c r="J5" s="22"/>
       <c r="K5" s="23"/>
     </row>
-    <row r="6" spans="2:12" ht="16.5">
+    <row r="6" spans="2:12" ht="15.6">
       <c r="B6" s="20" t="s">
         <v>12</v>
       </c>
@@ -1876,7 +1868,7 @@
       <c r="J6" s="22"/>
       <c r="K6" s="23"/>
     </row>
-    <row r="7" spans="2:12" ht="16.5">
+    <row r="7" spans="2:12" ht="15.6">
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
@@ -1908,7 +1900,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="16.5">
+    <row r="8" spans="2:12" ht="15.6">
       <c r="B8" s="11">
         <v>1</v>
       </c>
@@ -1932,7 +1924,7 @@
       <c r="J8" s="14"/>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="2:12" ht="16.5">
+    <row r="9" spans="2:12" ht="15.6">
       <c r="B9" s="11">
         <v>2</v>
       </c>
@@ -1954,7 +1946,7 @@
       <c r="J9" s="14"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="2:12" ht="16.5">
+    <row r="10" spans="2:12" ht="15.6">
       <c r="B10" s="11">
         <v>3</v>
       </c>
@@ -1978,7 +1970,7 @@
       <c r="J10" s="14"/>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="2:12" ht="16.5">
+    <row r="11" spans="2:12" ht="15.6">
       <c r="B11" s="11">
         <v>4</v>
       </c>
@@ -2002,7 +1994,7 @@
       <c r="J11" s="14"/>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="2:12" ht="16.5">
+    <row r="12" spans="2:12" ht="15.6">
       <c r="B12" s="11">
         <v>5</v>
       </c>
@@ -2026,7 +2018,7 @@
       <c r="J12" s="14"/>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="2:12" ht="16.5">
+    <row r="13" spans="2:12" ht="15.6">
       <c r="B13" s="11">
         <v>6</v>
       </c>
@@ -2050,7 +2042,7 @@
       <c r="J13" s="14"/>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="2:12" ht="16.5">
+    <row r="14" spans="2:12" ht="15.6">
       <c r="B14" s="11">
         <v>7</v>
       </c>
@@ -2072,7 +2064,7 @@
       <c r="J14" s="14"/>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="2:12" ht="16.5">
+    <row r="15" spans="2:12" ht="15.6">
       <c r="B15" s="11">
         <v>8</v>
       </c>
@@ -2096,7 +2088,7 @@
       <c r="J15" s="14"/>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="2:12" ht="16.5">
+    <row r="16" spans="2:12" ht="15.6">
       <c r="B16" s="11">
         <v>9</v>
       </c>
@@ -2120,7 +2112,7 @@
       <c r="J16" s="14"/>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="2:11" ht="16.5">
+    <row r="17" spans="2:11" ht="15.6">
       <c r="B17" s="11">
         <v>10</v>
       </c>
@@ -2144,7 +2136,7 @@
       <c r="J17" s="14"/>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="2:11" ht="16.5">
+    <row r="18" spans="2:11" ht="15.6">
       <c r="B18" s="11">
         <v>11</v>
       </c>
@@ -2168,7 +2160,7 @@
       <c r="J18" s="14"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="2:11" ht="16.5">
+    <row r="19" spans="2:11" ht="15.6">
       <c r="B19" s="11">
         <v>12</v>
       </c>
@@ -2215,21 +2207,21 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="14.25">
+    <row r="2" spans="2:12" ht="15.6">
       <c r="L2" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="16.5">
+    <row r="5" spans="2:12" ht="15.6">
       <c r="B5" s="20" t="s">
         <v>11</v>
       </c>
@@ -2245,7 +2237,7 @@
       <c r="J5" s="22"/>
       <c r="K5" s="23"/>
     </row>
-    <row r="6" spans="2:12" ht="16.5">
+    <row r="6" spans="2:12" ht="15.6">
       <c r="B6" s="20" t="s">
         <v>12</v>
       </c>
@@ -2261,7 +2253,7 @@
       <c r="J6" s="22"/>
       <c r="K6" s="23"/>
     </row>
-    <row r="7" spans="2:12" ht="16.5">
+    <row r="7" spans="2:12" ht="15.6">
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
@@ -2293,7 +2285,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="16.5">
+    <row r="8" spans="2:12" ht="15.6">
       <c r="B8" s="11">
         <v>1</v>
       </c>
@@ -2317,7 +2309,7 @@
       <c r="J8" s="14"/>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="2:12" ht="16.5">
+    <row r="9" spans="2:12" ht="15.6">
       <c r="B9" s="11">
         <v>2</v>
       </c>
@@ -2341,7 +2333,7 @@
       <c r="J9" s="14"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="2:12" ht="16.5">
+    <row r="10" spans="2:12" ht="15.6">
       <c r="B10" s="11">
         <v>3</v>
       </c>
@@ -2365,7 +2357,7 @@
       <c r="J10" s="14"/>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="2:12" ht="16.5">
+    <row r="11" spans="2:12" ht="15.6">
       <c r="B11" s="11">
         <v>4</v>
       </c>
@@ -2389,7 +2381,7 @@
       <c r="J11" s="14"/>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="2:12" ht="16.5">
+    <row r="12" spans="2:12" ht="15.6">
       <c r="B12" s="11">
         <v>5</v>
       </c>
@@ -2413,7 +2405,7 @@
       <c r="J12" s="14"/>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="2:12" ht="16.5">
+    <row r="13" spans="2:12" ht="15.6">
       <c r="B13" s="11">
         <v>6</v>
       </c>
@@ -2437,7 +2429,7 @@
       <c r="J13" s="14"/>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="2:12" ht="16.5">
+    <row r="14" spans="2:12" ht="15.6">
       <c r="B14" s="11">
         <v>7</v>
       </c>
@@ -2480,18 +2472,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="14.25">
+    <row r="2" spans="2:12" ht="15.6">
       <c r="L2" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="16.5">
+    <row r="5" spans="2:12" ht="15.6">
       <c r="B5" s="20" t="s">
         <v>11</v>
       </c>
@@ -2507,13 +2504,13 @@
       <c r="J5" s="22"/>
       <c r="K5" s="23"/>
     </row>
-    <row r="6" spans="2:12" ht="16.5">
+    <row r="6" spans="2:12" ht="15.6">
       <c r="B6" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -2523,7 +2520,7 @@
       <c r="J6" s="22"/>
       <c r="K6" s="23"/>
     </row>
-    <row r="7" spans="2:12" ht="16.5">
+    <row r="7" spans="2:12" ht="15.6">
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
@@ -2555,15 +2552,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="16.5">
+    <row r="8" spans="2:12" ht="15.6">
       <c r="B8" s="11">
         <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>59</v>
@@ -2579,15 +2576,15 @@
       <c r="J8" s="14"/>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="2:12" ht="16.5">
+    <row r="9" spans="2:12" ht="15.6">
       <c r="B9" s="11">
         <v>2</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>66</v>
@@ -2603,12 +2600,12 @@
       <c r="J9" s="14"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="2:12" ht="16.5">
+    <row r="10" spans="2:12" ht="15.6">
       <c r="B10" s="11">
         <v>3</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>113</v>
@@ -2627,7 +2624,7 @@
       <c r="J10" s="14"/>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="2:12" ht="16.5">
+    <row r="11" spans="2:12" ht="15.6">
       <c r="B11" s="11">
         <v>4</v>
       </c>
@@ -2635,7 +2632,7 @@
         <v>75</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>76</v>
@@ -2651,7 +2648,7 @@
       <c r="J11" s="14"/>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="2:12" ht="16.5">
+    <row r="12" spans="2:12" ht="15.6">
       <c r="B12" s="11">
         <v>5</v>
       </c>
@@ -2659,7 +2656,7 @@
         <v>94</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>44</v>
@@ -2675,7 +2672,7 @@
       <c r="J12" s="14"/>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="2:12" ht="16.5">
+    <row r="13" spans="2:12" ht="15.6">
       <c r="B13" s="11">
         <v>6</v>
       </c>
@@ -2699,7 +2696,7 @@
       <c r="J13" s="14"/>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="2:12" ht="16.5">
+    <row r="14" spans="2:12" ht="15.6">
       <c r="B14" s="11">
         <v>7</v>
       </c>
@@ -2744,7 +2741,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2759,7 +2756,7 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2774,7 +2771,7 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/数据库表字典.xlsx
+++ b/doc/数据库表字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="108" windowWidth="19392" windowHeight="7608"/>
+    <workbookView xWindow="600" yWindow="108" windowWidth="19392" windowHeight="7608" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="132">
   <si>
     <t>编号</t>
   </si>
@@ -526,6 +526,10 @@
   </si>
   <si>
     <t>bakParam1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1124,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1820,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1908,7 +1912,7 @@
         <v>71</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>81</v>
@@ -2473,7 +2477,7 @@
   <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2768,7 +2772,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/doc/数据库表字典.xlsx
+++ b/doc/数据库表字典.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="131">
   <si>
     <t>编号</t>
   </si>
@@ -433,103 +433,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>menuName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supMenuId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuSeq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwdSalt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoneNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>districtCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单角色关联表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_role_relation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单角色关联表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relationId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bakParam1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>menuIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menuName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supMenuId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menuLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menuSeq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menuId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginPwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwdSalt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phoneNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>districtCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单角色关联表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu_role_relation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单角色关联表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>relationId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bakParam1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menuId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1207,10 +1203,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2"/>
       <c r="H8" s="1"/>
@@ -1439,7 +1435,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>59</v>
@@ -1463,7 +1459,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>44</v>
@@ -1487,7 +1483,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>44</v>
@@ -1511,7 +1507,7 @@
         <v>29</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>44</v>
@@ -1559,7 +1555,7 @@
         <v>28</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>46</v>
@@ -1585,7 +1581,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>48</v>
@@ -1609,7 +1605,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>105</v>
@@ -1633,7 +1629,7 @@
         <v>57</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>58</v>
@@ -1705,7 +1701,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>44</v>
@@ -1825,7 +1821,7 @@
   <dimension ref="B2:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1912,7 +1908,7 @@
         <v>71</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>81</v>
@@ -1936,7 +1932,7 @@
         <v>95</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>79</v>
@@ -1958,7 +1954,7 @@
         <v>72</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>80</v>
@@ -1982,7 +1978,7 @@
         <v>73</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>80</v>
@@ -2054,7 +2050,7 @@
         <v>106</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>79</v>
@@ -2076,7 +2072,7 @@
         <v>74</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>80</v>
@@ -2100,7 +2096,7 @@
         <v>100</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>76</v>
@@ -2498,7 +2494,7 @@
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
@@ -2514,7 +2510,7 @@
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -2561,10 +2557,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>59</v>
@@ -2585,7 +2581,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>87</v>
@@ -2609,10 +2605,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>66</v>
@@ -2660,7 +2656,7 @@
         <v>94</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>44</v>

--- a/doc/数据库表字典.xlsx
+++ b/doc/数据库表字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="108" windowWidth="19392" windowHeight="7608" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="108" windowWidth="19392" windowHeight="7608" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="130">
   <si>
     <t>编号</t>
   </si>
@@ -457,75 +457,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>loginName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwdSalt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>districtCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单角色关联表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_role_relation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单角色关联表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relationId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bakParam1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoneNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginPwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwdSalt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phoneNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>districtCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单角色关联表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu_role_relation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单角色关联表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>relationId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bakParam1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menuIcon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1203,10 +1199,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E8" s="2"/>
       <c r="H8" s="1"/>
@@ -1342,7 +1338,7 @@
   <dimension ref="B2:L23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1435,7 +1431,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>59</v>
@@ -1459,7 +1455,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>44</v>
@@ -1483,7 +1479,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>44</v>
@@ -1507,7 +1503,7 @@
         <v>29</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>44</v>
@@ -1555,7 +1551,7 @@
         <v>28</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>46</v>
@@ -1581,7 +1577,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>48</v>
@@ -1605,7 +1601,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>105</v>
@@ -1629,7 +1625,7 @@
         <v>57</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>58</v>
@@ -1701,7 +1697,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>44</v>
@@ -1820,7 +1816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -2072,7 +2068,7 @@
         <v>74</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>80</v>
@@ -2203,8 +2199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2494,7 +2490,7 @@
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
@@ -2510,7 +2506,7 @@
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -2557,10 +2553,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>59</v>
@@ -2581,7 +2577,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>87</v>
@@ -2605,7 +2601,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>112</v>
@@ -2656,7 +2652,7 @@
         <v>94</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>44</v>

--- a/doc/数据库表字典.xlsx
+++ b/doc/数据库表字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="108" windowWidth="19392" windowHeight="7608" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="108" windowWidth="19392" windowHeight="7608" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -241,6 +241,89 @@
   </si>
   <si>
     <t>bigint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单角色表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限角色关联表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bakParam1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留参数2</t>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父级菜单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getdate()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留参数3</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bigint</t>
@@ -251,11 +334,155 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>菜单角色表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限角色关联表</t>
+    <t>getdate()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleDes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bakParam2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bakParam3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supMenuName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父级菜单名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isEnable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuSeq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwdSalt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>districtCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单角色关联表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_role_relation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单角色关联表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -263,177 +490,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>菜单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relationId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>bakParam1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预留参数2</t>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父级菜单ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getdate()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预留参数3</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getdate()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roleName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roleDes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bakParam2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bakParam3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预留参数1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supMenuName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父级菜单名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menuUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isEnable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单顺序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menuName</t>
+    <t>menuIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -441,19 +514,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>createTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menuLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menuSeq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menuId</t>
+    <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -461,67 +522,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>loginPwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwdSalt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>districtCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单角色关联表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu_role_relation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单角色关联表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>relationId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bakParam1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menuIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>phoneNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1174,7 +1175,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2"/>
       <c r="H6" s="1"/>
@@ -1185,10 +1186,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="E7" s="2"/>
       <c r="H7" s="1"/>
@@ -1199,10 +1200,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E8" s="2"/>
       <c r="H8" s="1"/>
@@ -1227,7 +1228,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>22</v>
@@ -1337,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1381,7 +1382,7 @@
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -1431,10 +1432,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -1455,7 +1456,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>44</v>
@@ -1479,7 +1480,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>44</v>
@@ -1503,7 +1504,7 @@
         <v>29</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>44</v>
@@ -1527,7 +1528,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>43</v>
@@ -1551,7 +1552,7 @@
         <v>28</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>46</v>
@@ -1577,7 +1578,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>48</v>
@@ -1601,10 +1602,10 @@
         <v>31</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -1625,16 +1626,16 @@
         <v>57</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J16" s="14"/>
       <c r="K16" s="16"/>
@@ -1647,7 +1648,7 @@
         <v>33</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>46</v>
@@ -1673,14 +1674,14 @@
         <v>32</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11" t="s">
@@ -1697,7 +1698,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>44</v>
@@ -1817,7 +1818,7 @@
   <dimension ref="B2:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1854,7 +1855,7 @@
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -1901,13 +1902,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -1925,19 +1926,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="16"/>
@@ -1947,13 +1948,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="10">
         <v>50</v>
@@ -1961,7 +1962,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="16"/>
@@ -1971,13 +1972,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="10">
         <v>32</v>
@@ -1985,7 +1986,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="16"/>
@@ -1995,13 +1996,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" s="10">
         <v>50</v>
@@ -2009,7 +2010,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="16"/>
@@ -2019,13 +2020,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" s="10">
         <v>255</v>
@@ -2033,7 +2034,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="16"/>
@@ -2043,19 +2044,19 @@
         <v>7</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="16"/>
@@ -2065,13 +2066,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="10">
         <v>255</v>
@@ -2079,7 +2080,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="16"/>
@@ -2089,21 +2090,21 @@
         <v>9</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J16" s="14"/>
       <c r="K16" s="16"/>
@@ -2113,10 +2114,10 @@
         <v>10</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>44</v>
@@ -2137,10 +2138,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>44</v>
@@ -2161,10 +2162,10 @@
         <v>12</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>44</v>
@@ -2199,8 +2200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2223,7 +2224,7 @@
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
@@ -2239,7 +2240,7 @@
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -2286,13 +2287,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -2310,13 +2311,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="10">
         <v>50</v>
@@ -2324,7 +2325,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="16"/>
@@ -2334,13 +2335,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="10">
         <v>255</v>
@@ -2348,7 +2349,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="16"/>
@@ -2358,21 +2359,21 @@
         <v>4</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="16"/>
@@ -2382,10 +2383,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>44</v>
@@ -2406,10 +2407,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>44</v>
@@ -2430,10 +2431,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>44</v>
@@ -2469,7 +2470,7 @@
   <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2490,7 +2491,7 @@
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
@@ -2506,7 +2507,7 @@
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -2553,13 +2554,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>125</v>
-      </c>
       <c r="E8" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -2577,13 +2578,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="10">
         <v>32</v>
@@ -2591,7 +2592,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="16"/>
@@ -2601,13 +2602,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="10">
         <v>32</v>
@@ -2615,7 +2616,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="16"/>
@@ -2625,21 +2626,21 @@
         <v>4</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="16"/>
@@ -2649,10 +2650,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>44</v>
@@ -2673,10 +2674,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>44</v>
@@ -2697,10 +2698,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>44</v>

--- a/doc/数据库表字典.xlsx
+++ b/doc/数据库表字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="108" windowWidth="19392" windowHeight="7608" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="108" windowWidth="19392" windowHeight="7608" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="权限表" sheetId="6" r:id="rId6"/>
     <sheet name="权限角色关联表" sheetId="8" r:id="rId7"/>
     <sheet name="常量参数表" sheetId="9" r:id="rId8"/>
+    <sheet name="登录日志表" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="147">
   <si>
     <t>编号</t>
   </si>
@@ -523,6 +524,74 @@
   </si>
   <si>
     <t>phoneNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录日志表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginIp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getdate()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1122,7 +1191,7 @@
   <dimension ref="B3:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1250,9 +1319,15 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="2:9" ht="16.8">
-      <c r="B12" s="4"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:9" ht="16.8">
@@ -1328,6 +1403,7 @@
     <hyperlink ref="C9" location="权限表!A1" display="权限表"/>
     <hyperlink ref="C10" location="角色权限关联表!A1" display="角色权限关联表"/>
     <hyperlink ref="C11" location="常量参数表!A1" display="常量参数表"/>
+    <hyperlink ref="C12" location="登录日志表!A1" display="登录日志表"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="180" r:id="rId1"/>
@@ -1338,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2470,7 +2546,7 @@
   <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B1" sqref="B1:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2773,4 +2849,368 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="15.6">
+      <c r="L2" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="15.6">
+      <c r="B5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
+    </row>
+    <row r="6" spans="2:12" ht="15.6">
+      <c r="B6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" spans="2:12" ht="15.6">
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="15.6">
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="2:12" ht="15.6">
+      <c r="B9" s="11">
+        <v>2</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="10">
+        <v>32</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="2:12" ht="15.6">
+      <c r="B10" s="11">
+        <v>3</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="10">
+        <v>50</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="16"/>
+    </row>
+    <row r="11" spans="2:12" ht="15.6">
+      <c r="B11" s="11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="10">
+        <v>50</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="2:12" ht="15.6">
+      <c r="B12" s="11">
+        <v>5</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="10">
+        <v>50</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="2:12" ht="15.6">
+      <c r="B13" s="11">
+        <v>6</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="10">
+        <v>255</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="16"/>
+    </row>
+    <row r="14" spans="2:12" ht="15.6">
+      <c r="B14" s="11">
+        <v>7</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="10">
+        <v>255</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="2:12" ht="15.6">
+      <c r="B15" s="11">
+        <v>8</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="14"/>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="2:12" ht="15.6">
+      <c r="B16" s="11">
+        <v>9</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="10">
+        <v>255</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.6">
+      <c r="B17" s="11">
+        <v>10</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="10">
+        <v>255</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="2:11" ht="15.6">
+      <c r="B18" s="11">
+        <v>11</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="10">
+        <v>255</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:K6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L2" location="目录!A1" display="返回目录"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>